--- a/data/2023/fid/FID-MOVE-DE-14.xlsx
+++ b/data/2023/fid/FID-MOVE-DE-14.xlsx
@@ -136,10 +136,46 @@
     <t>x</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>DE-7;DE-9;DE-12;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-21;DE-24;DE-25;DE-Frei160;DE-Ofb1;DE-Frei129;DE-Fn1;DE-27;DE-1102;DE-66;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-100;DE-180;DE-943;DE-289;DE-Sa18;DE-1046;DE-898;DE-1050;DE-355;DE-384;DE-Aug4;DE-473;DE-703;DE-705;DE-860;DE-739;DE-824;DE-Ilm1;DE-634;DE-Rt2;DE-944;DE-958;DE-520;DE-D120;DE-706;DE-F197;DE-1373;DE-960-1;DE-960-3;DE-1866;DE-840</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>DE-7;DE-9;DE-12;DE-15;DE-15-292;DE-16;DE-18;DE-19;DE-M347;DE-862;DE-863;DE-21;DE-24;DE-Frei160;DE-Ofb1;DE-Frei129;DE-Fn1;DE-27;DE-1102;DE-66;DE-84;DE-89;DE-90;DE-1028;DE-91;DE-861;DE-100;DE-180;DE-943;DE-289;DE-Sa18;DE-1046;DE-898;DE-1050;DE-355;DE-384;DE-Aug4;DE-473;DE-703;DE-705;DE-860;DE-739;DE-824;DE-Ilm1;DE-634;DE-Rt2;DE-944;DE-958;DE-520;DE-706;DE-F197;DE-1373;DE-960-1;DE-960-3;DE-1866;DE-840</t>
+  </si>
+  <si>
+    <t>2860191-9</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Fuhrpark special</t>
+  </si>
+  <si>
+    <t>Österreichischer Wirtschaftsverlag GmbH</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>380;650;620</t>
+  </si>
+  <si>
+    <t>3098232-7</t>
+  </si>
+  <si>
+    <t>2616898-4</t>
+  </si>
+  <si>
+    <t>2014, 01-2021, 03</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>3096598-6</t>
@@ -166,9 +202,6 @@
     <t>LF</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3097039-8</t>
   </si>
   <si>
@@ -181,40 +214,7 @@
     <t>Hannover;Dresden</t>
   </si>
   <si>
-    <t>ger</t>
-  </si>
-  <si>
     <t>https://www.fid-move.de/;https://dbis.uni-regensburg.de/frontdoor.php?titel_id=104052</t>
-  </si>
-  <si>
-    <t>2860191-9</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Fuhrpark special</t>
-  </si>
-  <si>
-    <t>Österreichischer Wirtschaftsverlag GmbH</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>380;650;620</t>
-  </si>
-  <si>
-    <t>3098232-7</t>
-  </si>
-  <si>
-    <t>2616898-4</t>
-  </si>
-  <si>
-    <t>2014, 01-2021, 03</t>
   </si>
   <si>
     <t>2673972-0</t>
@@ -762,22 +762,22 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -786,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -804,19 +804,19 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -890,10 +890,10 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
@@ -905,7 +905,7 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -913,25 +913,25 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
@@ -958,19 +958,19 @@
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
         <v>66</v>
       </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -982,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y5" t="s">
         <v>32</v>
@@ -993,7 +993,7 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1008,7 +1008,7 @@
         <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1085,7 +1085,7 @@
         <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -1124,7 +1124,7 @@
         <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
         <v>32</v>
